--- a/TFG/1 Planificación/Cronograma.xlsx
+++ b/TFG/1 Planificación/Cronograma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ciro\Documents\DAW-02\PFG\1 Planificación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Documents\Formación\Reglada\Jesuitas\daw-02\TFG\1 Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DF666C-10DB-401E-8B9F-F44BA8C647A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194A4BB6-7E46-4B1F-AF54-9996B11F7738}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,14 +27,8 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Gantt!$8:$10</definedName>
     <definedName name="TitleRegion..BO60">Gantt!$B$8:$B$10</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -649,12 +643,45 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -669,39 +696,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1120,7 +1114,7 @@
   <dimension ref="A1:BO26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1142,29 +1136,29 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="P1" s="61" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="P1" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
     </row>
     <row r="2" spans="1:67" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1175,21 +1169,21 @@
       <c r="F3" s="16"/>
       <c r="G3" s="26"/>
       <c r="H3" s="44"/>
-      <c r="I3" s="58" t="s">
+      <c r="I3" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="60"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="58" t="s">
+      <c r="Q3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="60"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="53"/>
     </row>
     <row r="4" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16"/>
@@ -1199,22 +1193,22 @@
       <c r="F4" s="16"/>
       <c r="G4" s="26"/>
       <c r="H4" s="45"/>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="60"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="17"/>
       <c r="O4" s="18"/>
       <c r="P4" s="10"/>
-      <c r="Q4" s="50" t="s">
+      <c r="Q4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="63"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="57"/>
       <c r="U4" s="36"/>
       <c r="V4" s="37"/>
       <c r="W4" s="38"/>
@@ -1246,22 +1240,22 @@
       <c r="F5" s="16"/>
       <c r="G5" s="26"/>
       <c r="H5" s="46"/>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="60"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
       <c r="N5" s="17"/>
       <c r="O5" s="18"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="50" t="s">
+      <c r="Q5" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="64"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="59"/>
       <c r="U5" s="36"/>
       <c r="V5" s="37"/>
       <c r="W5" s="38"/>
@@ -1293,25 +1287,25 @@
       <c r="F6" s="16"/>
       <c r="G6" s="26"/>
       <c r="H6" s="47"/>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="60"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="17"/>
       <c r="O6" s="18"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="65" t="s">
+      <c r="Q6" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="67"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="62"/>
       <c r="X6" s="38"/>
       <c r="Y6" s="38"/>
       <c r="Z6" s="34"/>
@@ -1347,16 +1341,16 @@
       <c r="N7" s="17"/>
       <c r="O7" s="18"/>
       <c r="P7" s="13"/>
-      <c r="Q7" s="50" t="s">
+      <c r="Q7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
       <c r="Y7" s="38"/>
       <c r="Z7" s="34"/>
       <c r="AA7" s="39"/>
@@ -1377,22 +1371,22 @@
       <c r="AP7" s="15"/>
     </row>
     <row r="8" spans="1:67" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="67" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="14"/>
@@ -1425,12 +1419,12 @@
       <c r="AI8" s="43"/>
     </row>
     <row r="9" spans="1:67" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="52"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="56"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="19">
         <v>43920</v>
       </c>
@@ -1527,12 +1521,12 @@
       <c r="BO9" s="20"/>
     </row>
     <row r="10" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="53"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
       <c r="H10" s="3">
         <v>1</v>
       </c>
@@ -1731,10 +1725,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="22">
+        <v>2</v>
+      </c>
+      <c r="G11" s="23">
         <v>1</v>
-      </c>
-      <c r="G11" s="23">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:67" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1745,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="22">
         <v>1</v>
@@ -1768,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="22">
         <v>1</v>
@@ -1791,10 +1785,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="22">
         <v>0</v>
@@ -2084,6 +2078,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Q7:X7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="I5:M5"/>
     <mergeCell ref="I6:M6"/>
@@ -2095,13 +2096,6 @@
     <mergeCell ref="Q6:W6"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="I4:M4"/>
-    <mergeCell ref="Q7:X7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
   </mergeCells>
   <conditionalFormatting sqref="H11:BO26">
     <cfRule type="expression" dxfId="9" priority="1">
